--- a/app/static/example_data/embrace-plus_calendar_large.xlsx
+++ b/app/static/example_data/embrace-plus_calendar_large.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veerlevanleemput/Documents/Hypebright BV/Fivoor/wearalyze/app/static/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2747CEAA-65AD-2945-9778-825B9BBD1DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938C04DD-E40B-5B42-A709-500EBC7BE388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="1920" windowWidth="27640" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -493,7 +493,7 @@
         <v>45118</v>
       </c>
       <c r="B2" s="2">
-        <v>0.32291666666666669</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -507,7 +507,7 @@
         <v>45118</v>
       </c>
       <c r="B3" s="2">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C3" s="2">
         <v>0.5</v>

--- a/app/static/example_data/embrace-plus_calendar_large.xlsx
+++ b/app/static/example_data/embrace-plus_calendar_large.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veerlevanleemput/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veerlevanleemput/Documents/Hypebright BV/Fivoor/wearalyze/app/static/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4D8591-9616-C946-A02D-ED85EF5F9A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3707DC77-79C7-5E4B-8D55-506E384B1704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$D$29</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -459,7 +459,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -596,9 +596,6 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -630,9 +627,6 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -698,9 +692,6 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -800,9 +791,6 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -834,9 +822,6 @@
       <c r="D22" t="s">
         <v>23</v>
       </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -885,9 +870,6 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -919,9 +901,6 @@
       <c r="D27" t="s">
         <v>23</v>
       </c>
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -953,12 +932,9 @@
       <c r="D29" t="s">
         <v>18</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
